--- a/biology/Médecine/Adolphe_Zünd-Burguet/Adolphe_Zünd-Burguet.xlsx
+++ b/biology/Médecine/Adolphe_Zünd-Burguet/Adolphe_Zünd-Burguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adolphe_Z%C3%BCnd-Burguet</t>
+          <t>Adolphe_Zünd-Burguet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe (Pie-Adolphe) Zünd-Burguet était un spécialiste des troubles de la parole. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adolphe_Z%C3%BCnd-Burguet</t>
+          <t>Adolphe_Zünd-Burguet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maître de conférence à l'Institut catholique de Paris, il a été aussi Directeur du Gymnase de la voix et attaché au Laboratoire de phonétique expérimentale de l'Abbé Rousselot au Collège de France. Il a été, avec Paul Olivier, secrétaire de rédaction de la revue La Parole ou Revue internationale de Rhinologie, Otologie, Laryngologie et Phonétique expérimentale à partir de 1899, revue fondée par Marcel Natier, docteur en médecine et l’abbé Jean Pierre Rousselot, phonéticien. Il a assuré seul cette fonction dès 1901. Il a été ensuite remplacé en 1903 par Fauste Laclotte, professeur de phonétique expérimentale aux cours de l'Alliance française. Il fut l’éditeur scientifique de la revue La rééducation auditive, vocale, respiratoire, revue trimestrielle, qui ne parut que sept fois en 1913 et 1914 et dans laquelle il publia de nombreux articles.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adolphe_Z%C3%BCnd-Burguet</t>
+          <t>Adolphe_Zünd-Burguet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La phonétique expérimentale appliquée à l'enseignement des langues vivantes, Paris : Alliance française, 1898.
 Praktische Übungen zur Aussprache des Französischen in methodischen Anordnung, Paris : Welter, 1901.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adolphe_Z%C3%BCnd-Burguet</t>
+          <t>Adolphe_Zünd-Burguet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Applications pratiques de la Phonétique expérimentale (première partie), La Parole, 1899.
 Applications pratiques de la Phonétique expérimentale (seconde partie), La Parole, 1899.
